--- a/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/APPLICATION/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY.xlsx
+++ b/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/APPLICATION/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY.xlsx
@@ -2078,7 +2078,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>772000/19080</t>
+          <t>772000/19079</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>355555</t>
+          <t>355554</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5273,7 +5273,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>776000/31121</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
